--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl5-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,13 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl5</t>
   </si>
   <si>
     <t>Ccr1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H2">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J2">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>17.3918391589297</v>
+        <v>0.002632</v>
       </c>
       <c r="N2">
-        <v>17.3918391589297</v>
+        <v>0.007896</v>
       </c>
       <c r="O2">
-        <v>0.04829507221310243</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="P2">
-        <v>0.04829507221310243</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="Q2">
-        <v>22.05753964068072</v>
+        <v>5.7414448E-05</v>
       </c>
       <c r="R2">
-        <v>22.05753964068072</v>
+        <v>0.0005167300320000001</v>
       </c>
       <c r="S2">
-        <v>0.001319529425979258</v>
+        <v>2.407811571304486E-09</v>
       </c>
       <c r="T2">
-        <v>0.001319529425979258</v>
+        <v>2.407811571304485E-09</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -596,49 +602,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H3">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I3">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J3">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.0751712488256</v>
+        <v>58.61543533333333</v>
       </c>
       <c r="N3">
-        <v>22.0751712488256</v>
+        <v>175.846306</v>
       </c>
       <c r="O3">
-        <v>0.06130012932135721</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="P3">
-        <v>0.06130012932135721</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="Q3">
-        <v>27.9972670196745</v>
+        <v>1.278637106361333</v>
       </c>
       <c r="R3">
-        <v>27.9972670196745</v>
+        <v>11.507733957252</v>
       </c>
       <c r="S3">
-        <v>0.001674856683078322</v>
+        <v>5.362269128140189E-05</v>
       </c>
       <c r="T3">
-        <v>0.001674856683078322</v>
+        <v>5.362269128140189E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.26826952797315</v>
+        <v>0.021814</v>
       </c>
       <c r="H4">
-        <v>1.26826952797315</v>
+        <v>0.065442</v>
       </c>
       <c r="I4">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J4">
-        <v>0.02732223735284674</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>320.649215988761</v>
+        <v>28.58678433333334</v>
       </c>
       <c r="N4">
-        <v>320.649215988761</v>
+        <v>85.76035300000001</v>
       </c>
       <c r="O4">
-        <v>0.8904047984655403</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="P4">
-        <v>0.8904047984655403</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="Q4">
-        <v>406.6696298070265</v>
+        <v>0.6235921134473335</v>
       </c>
       <c r="R4">
-        <v>406.6696298070265</v>
+        <v>5.612329021026</v>
       </c>
       <c r="S4">
-        <v>0.02432785124378916</v>
+        <v>2.615181994839886E-05</v>
       </c>
       <c r="T4">
-        <v>0.02432785124378916</v>
+        <v>2.615181994839886E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>9.98925018056247</v>
+        <v>0.021814</v>
       </c>
       <c r="H5">
-        <v>9.98925018056247</v>
+        <v>0.065442</v>
       </c>
       <c r="I5">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="J5">
-        <v>0.2151976834501957</v>
+        <v>0.0003864745254839945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.3918391589297</v>
+        <v>335.2538503333333</v>
       </c>
       <c r="N5">
-        <v>17.3918391589297</v>
+        <v>1005.761551</v>
       </c>
       <c r="O5">
-        <v>0.04829507221310243</v>
+        <v>0.7935778071233418</v>
       </c>
       <c r="P5">
-        <v>0.04829507221310243</v>
+        <v>0.7935778071233417</v>
       </c>
       <c r="Q5">
-        <v>173.7314324586519</v>
+        <v>7.313227491171333</v>
       </c>
       <c r="R5">
-        <v>173.7314324586519</v>
+        <v>65.81904742054201</v>
       </c>
       <c r="S5">
-        <v>0.01039298766231956</v>
+        <v>0.0003066976064426224</v>
       </c>
       <c r="T5">
-        <v>0.01039298766231956</v>
+        <v>0.0003066976064426224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.98925018056247</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H6">
-        <v>9.98925018056247</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I6">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J6">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>22.0751712488256</v>
+        <v>0.002632</v>
       </c>
       <c r="N6">
-        <v>22.0751712488256</v>
+        <v>0.007896</v>
       </c>
       <c r="O6">
-        <v>0.06130012932135721</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="P6">
-        <v>0.06130012932135721</v>
+        <v>6.230194780080539E-06</v>
       </c>
       <c r="Q6">
-        <v>220.5144083832786</v>
+        <v>0.003550198642666667</v>
       </c>
       <c r="R6">
-        <v>220.5144083832786</v>
+        <v>0.031951787784</v>
       </c>
       <c r="S6">
-        <v>0.01319164582515349</v>
+        <v>1.488860325234213E-07</v>
       </c>
       <c r="T6">
-        <v>0.01319164582515349</v>
+        <v>1.488860325234212E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.98925018056247</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H7">
-        <v>9.98925018056247</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I7">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J7">
-        <v>0.2151976834501957</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>320.649215988761</v>
+        <v>58.61543533333333</v>
       </c>
       <c r="N7">
-        <v>320.649215988761</v>
+        <v>175.846306</v>
       </c>
       <c r="O7">
-        <v>0.8904047984655403</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="P7">
-        <v>0.8904047984655403</v>
+        <v>0.1387483203821739</v>
       </c>
       <c r="Q7">
-        <v>3203.045238712945</v>
+        <v>79.06399656524155</v>
       </c>
       <c r="R7">
-        <v>3203.045238712945</v>
+        <v>711.5759690871739</v>
       </c>
       <c r="S7">
-        <v>0.1916130499627226</v>
+        <v>0.003315736934427493</v>
       </c>
       <c r="T7">
-        <v>0.1916130499627226</v>
+        <v>0.003315736934427492</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.1614287690131</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H8">
-        <v>35.1614287690131</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I8">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J8">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.3918391589297</v>
+        <v>28.58678433333334</v>
       </c>
       <c r="N8">
-        <v>17.3918391589297</v>
+        <v>85.76035300000001</v>
       </c>
       <c r="O8">
-        <v>0.04829507221310243</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="P8">
-        <v>0.04829507221310243</v>
+        <v>0.06766764229970421</v>
       </c>
       <c r="Q8">
-        <v>611.5219137488393</v>
+        <v>38.55956038693189</v>
       </c>
       <c r="R8">
-        <v>611.5219137488393</v>
+        <v>347.036043482387</v>
       </c>
       <c r="S8">
-        <v>0.03658255512480362</v>
+        <v>0.00161708696884221</v>
       </c>
       <c r="T8">
-        <v>0.03658255512480362</v>
+        <v>0.001617086968842209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.1614287690131</v>
+        <v>1.348859666666667</v>
       </c>
       <c r="H9">
-        <v>35.1614287690131</v>
+        <v>4.046578999999999</v>
       </c>
       <c r="I9">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860727</v>
       </c>
       <c r="J9">
-        <v>0.7574800791969577</v>
+        <v>0.02389749241860726</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.0751712488256</v>
+        <v>335.2538503333333</v>
       </c>
       <c r="N9">
-        <v>22.0751712488256</v>
+        <v>1005.761551</v>
       </c>
       <c r="O9">
-        <v>0.06130012932135721</v>
+        <v>0.7935778071233418</v>
       </c>
       <c r="P9">
-        <v>0.06130012932135721</v>
+        <v>0.7935778071233417</v>
       </c>
       <c r="Q9">
-        <v>776.1945614293473</v>
+        <v>452.2103968093365</v>
       </c>
       <c r="R9">
-        <v>776.1945614293473</v>
+        <v>4069.893571284029</v>
       </c>
       <c r="S9">
-        <v>0.04643362681312541</v>
+        <v>0.01896451962930504</v>
       </c>
       <c r="T9">
-        <v>0.04643362681312541</v>
+        <v>0.01896451962930503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.462627</v>
+      </c>
+      <c r="H10">
+        <v>55.387881</v>
+      </c>
+      <c r="I10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J10">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.002632</v>
+      </c>
+      <c r="N10">
+        <v>0.007896</v>
+      </c>
+      <c r="O10">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="P10">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="Q10">
+        <v>0.04859363426400001</v>
+      </c>
+      <c r="R10">
+        <v>0.437342708376</v>
+      </c>
+      <c r="S10">
+        <v>2.037889746368324E-06</v>
+      </c>
+      <c r="T10">
+        <v>2.037889746368324E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>18.462627</v>
+      </c>
+      <c r="H11">
+        <v>55.387881</v>
+      </c>
+      <c r="I11">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J11">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>58.61543533333333</v>
+      </c>
+      <c r="N11">
+        <v>175.846306</v>
+      </c>
+      <c r="O11">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="P11">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="Q11">
+        <v>1082.194919001954</v>
+      </c>
+      <c r="R11">
+        <v>9739.754271017586</v>
+      </c>
+      <c r="S11">
+        <v>0.04538442045771867</v>
+      </c>
+      <c r="T11">
+        <v>0.04538442045771867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>18.462627</v>
+      </c>
+      <c r="H12">
+        <v>55.387881</v>
+      </c>
+      <c r="I12">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J12">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.58678433333334</v>
+      </c>
+      <c r="N12">
+        <v>85.76035300000001</v>
+      </c>
+      <c r="O12">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="P12">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="Q12">
+        <v>527.7871362757771</v>
+      </c>
+      <c r="R12">
+        <v>4750.084226481994</v>
+      </c>
+      <c r="S12">
+        <v>0.02213401013470465</v>
+      </c>
+      <c r="T12">
+        <v>0.02213401013470465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>18.462627</v>
+      </c>
+      <c r="H13">
+        <v>55.387881</v>
+      </c>
+      <c r="I13">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="J13">
+        <v>0.3270988818654527</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>335.2538503333333</v>
+      </c>
+      <c r="N13">
+        <v>1005.761551</v>
+      </c>
+      <c r="O13">
+        <v>0.7935778071233418</v>
+      </c>
+      <c r="P13">
+        <v>0.7935778071233417</v>
+      </c>
+      <c r="Q13">
+        <v>6189.66678901816</v>
+      </c>
+      <c r="R13">
+        <v>55707.00110116343</v>
+      </c>
+      <c r="S13">
+        <v>0.259578413383283</v>
+      </c>
+      <c r="T13">
+        <v>0.2595784133832829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H14">
+        <v>107.809532</v>
+      </c>
+      <c r="I14">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J14">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.002632</v>
+      </c>
+      <c r="N14">
+        <v>0.007896</v>
+      </c>
+      <c r="O14">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="P14">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="Q14">
+        <v>0.09458489607466669</v>
+      </c>
+      <c r="R14">
+        <v>0.8512640646720001</v>
+      </c>
+      <c r="S14">
+        <v>3.966642808082291E-06</v>
+      </c>
+      <c r="T14">
+        <v>3.96664280808229E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H15">
+        <v>107.809532</v>
+      </c>
+      <c r="I15">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J15">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.61543533333333</v>
+      </c>
+      <c r="N15">
+        <v>175.846306</v>
+      </c>
+      <c r="O15">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="P15">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="Q15">
+        <v>2106.434217087644</v>
+      </c>
+      <c r="R15">
+        <v>18957.90795378879</v>
+      </c>
+      <c r="S15">
+        <v>0.08833833396944497</v>
+      </c>
+      <c r="T15">
+        <v>0.08833833396944497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H16">
+        <v>107.809532</v>
+      </c>
+      <c r="I16">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J16">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>28.58678433333334</v>
+      </c>
+      <c r="N16">
+        <v>85.76035300000001</v>
+      </c>
+      <c r="O16">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="P16">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="Q16">
+        <v>1027.309280120533</v>
+      </c>
+      <c r="R16">
+        <v>9245.783521084797</v>
+      </c>
+      <c r="S16">
+        <v>0.04308266051748334</v>
+      </c>
+      <c r="T16">
+        <v>0.04308266051748334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>35.93651066666667</v>
+      </c>
+      <c r="H17">
+        <v>107.809532</v>
+      </c>
+      <c r="I17">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="J17">
+        <v>0.6366803844985104</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>335.2538503333333</v>
+      </c>
+      <c r="N17">
+        <v>1005.761551</v>
+      </c>
+      <c r="O17">
+        <v>0.7935778071233418</v>
+      </c>
+      <c r="P17">
+        <v>0.7935778071233417</v>
+      </c>
+      <c r="Q17">
+        <v>12047.8535685449</v>
+      </c>
+      <c r="R17">
+        <v>108430.6821169041</v>
+      </c>
+      <c r="S17">
+        <v>0.5052554233687739</v>
+      </c>
+      <c r="T17">
+        <v>0.5052554233687739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.178527</v>
+      </c>
+      <c r="H18">
+        <v>0.535581</v>
+      </c>
+      <c r="I18">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J18">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.002632</v>
+      </c>
+      <c r="N18">
+        <v>0.007896</v>
+      </c>
+      <c r="O18">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="P18">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="Q18">
+        <v>0.000469883064</v>
+      </c>
+      <c r="R18">
+        <v>0.004228947576</v>
+      </c>
+      <c r="S18">
+        <v>1.970566500368002E-08</v>
+      </c>
+      <c r="T18">
+        <v>1.970566500368001E-08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.178527</v>
+      </c>
+      <c r="H19">
+        <v>0.535581</v>
+      </c>
+      <c r="I19">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J19">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>58.61543533333333</v>
+      </c>
+      <c r="N19">
+        <v>175.846306</v>
+      </c>
+      <c r="O19">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="P19">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="Q19">
+        <v>10.464437823754</v>
+      </c>
+      <c r="R19">
+        <v>94.179940413786</v>
+      </c>
+      <c r="S19">
+        <v>0.0004388511142566624</v>
+      </c>
+      <c r="T19">
+        <v>0.0004388511142566624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.178527</v>
+      </c>
+      <c r="H20">
+        <v>0.535581</v>
+      </c>
+      <c r="I20">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J20">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>28.58678433333334</v>
+      </c>
+      <c r="N20">
+        <v>85.76035300000001</v>
+      </c>
+      <c r="O20">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="P20">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="Q20">
+        <v>5.103512846677001</v>
+      </c>
+      <c r="R20">
+        <v>45.93161562009301</v>
+      </c>
+      <c r="S20">
+        <v>0.0002140279618560466</v>
+      </c>
+      <c r="T20">
+        <v>0.0002140279618560466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.178527</v>
+      </c>
+      <c r="H21">
+        <v>0.535581</v>
+      </c>
+      <c r="I21">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="J21">
+        <v>0.003162929201938254</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>335.2538503333333</v>
+      </c>
+      <c r="N21">
+        <v>1005.761551</v>
+      </c>
+      <c r="O21">
+        <v>0.7935778071233418</v>
+      </c>
+      <c r="P21">
+        <v>0.7935778071233417</v>
+      </c>
+      <c r="Q21">
+        <v>59.851864138459</v>
+      </c>
+      <c r="R21">
+        <v>538.666777246131</v>
+      </c>
+      <c r="S21">
+        <v>0.002510030420160541</v>
+      </c>
+      <c r="T21">
+        <v>0.002510030420160541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="H10">
-        <v>35.1614287690131</v>
-      </c>
-      <c r="I10">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="J10">
-        <v>0.7574800791969577</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>320.649215988761</v>
-      </c>
-      <c r="N10">
-        <v>320.649215988761</v>
-      </c>
-      <c r="O10">
-        <v>0.8904047984655403</v>
-      </c>
-      <c r="P10">
-        <v>0.8904047984655403</v>
-      </c>
-      <c r="Q10">
-        <v>11274.48456782872</v>
-      </c>
-      <c r="R10">
-        <v>11274.48456782872</v>
-      </c>
-      <c r="S10">
-        <v>0.6744638972590287</v>
-      </c>
-      <c r="T10">
-        <v>0.6744638972590287</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.48568</v>
+      </c>
+      <c r="I22">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J22">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.002632</v>
+      </c>
+      <c r="N22">
+        <v>0.007896</v>
+      </c>
+      <c r="O22">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="P22">
+        <v>6.230194780080539E-06</v>
+      </c>
+      <c r="Q22">
+        <v>0.001303436586666667</v>
+      </c>
+      <c r="R22">
+        <v>0.01173092928</v>
+      </c>
+      <c r="S22">
+        <v>5.466271653151873E-08</v>
+      </c>
+      <c r="T22">
+        <v>5.466271653151872E-08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.48568</v>
+      </c>
+      <c r="I23">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J23">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>58.61543533333333</v>
+      </c>
+      <c r="N23">
+        <v>175.846306</v>
+      </c>
+      <c r="O23">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="P23">
+        <v>0.1387483203821739</v>
+      </c>
+      <c r="Q23">
+        <v>29.02792665534222</v>
+      </c>
+      <c r="R23">
+        <v>261.25133989808</v>
+      </c>
+      <c r="S23">
+        <v>0.001217355215044668</v>
+      </c>
+      <c r="T23">
+        <v>0.001217355215044668</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.48568</v>
+      </c>
+      <c r="I24">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J24">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>28.58678433333334</v>
+      </c>
+      <c r="N24">
+        <v>85.76035300000001</v>
+      </c>
+      <c r="O24">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="P24">
+        <v>0.06766764229970421</v>
+      </c>
+      <c r="Q24">
+        <v>14.15693791611556</v>
+      </c>
+      <c r="R24">
+        <v>127.41244124504</v>
+      </c>
+      <c r="S24">
+        <v>0.0005937048968695518</v>
+      </c>
+      <c r="T24">
+        <v>0.0005937048968695518</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4952266666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.48568</v>
+      </c>
+      <c r="I25">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="J25">
+        <v>0.008773837490007349</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>335.2538503333333</v>
+      </c>
+      <c r="N25">
+        <v>1005.761551</v>
+      </c>
+      <c r="O25">
+        <v>0.7935778071233418</v>
+      </c>
+      <c r="P25">
+        <v>0.7935778071233417</v>
+      </c>
+      <c r="Q25">
+        <v>166.0266467877422</v>
+      </c>
+      <c r="R25">
+        <v>1494.23982108968</v>
+      </c>
+      <c r="S25">
+        <v>0.006962722715376597</v>
+      </c>
+      <c r="T25">
+        <v>0.006962722715376596</v>
       </c>
     </row>
   </sheetData>
